--- a/4-correlation-matrix/4-correlation-matrix-solution.xlsx
+++ b/4-correlation-matrix/4-correlation-matrix-solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\4-correlation-matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D40696-E44F-45F5-A915-DED045274DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68774F9-7A36-4ED9-A70F-C18E66A704B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization userModified="1">
+    <initialization>
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -114,9 +114,8 @@
       <code>mpg_corr = mpg_df.select_dtypes(include='number').corr()</code>
     </pythonScript>
     <pythonScript>
-      <code>plt.figure(figsize=(10, 8))
-sns.heatmap(mpg_corr, annot=True, cmap='coolwarm', center=0)
-plt.title("Correlation Matrix of Numeric Variables")</code>
+      <code>sns.heatmap(mpg_corr, annot=True, cmap='coolwarm')
+plt.title('Correlation matrix of MPG dataset')</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -704,22 +703,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>672479</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>107645</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>346721</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AD0198-12E0-E023-F506-1850EC9AA118}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1C1F2A-C3E4-7517-5D30-D0F72C0FF039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -727,7 +726,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J6"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J5"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -740,8 +739,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10391775" y="1357313"/>
-          <a:ext cx="7178054" cy="6217932"/>
+          <a:off x="9380220" y="1021080"/>
+          <a:ext cx="5623571" cy="4690881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1439,20 +1438,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="2" max="2" width="9.04296875" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.76953125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.03515625" customWidth="1"/>
+    <col min="3" max="3" width="12.73828125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.58984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1477,8 +1477,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J1" t="e" cm="1" vm="1">
+        <f t="array" ref="J1">_xlfn._xlws.PY(0,1,mpg[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1503,12 +1507,8 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="e" cm="1" vm="1">
-        <f t="array" ref="J2">_xlfn._xlws.PY(0,1,mpg[#All])</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.65">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1589,8 +1589,12 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J5" t="e" cm="1" vm="3">
+        <f t="array" ref="J5">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1615,12 +1619,8 @@
       <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="e" cm="1" vm="3">
-        <f t="array" ref="J6">_xlfn._xlws.PY(2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.65">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A20">
         <v>27</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A21">
         <v>26</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A22">
         <v>25</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A35">
         <v>19</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A47">
         <v>18</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A48">
         <v>22</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A50">
         <v>18</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A51">
         <v>23</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A52">
         <v>28</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A53">
         <v>30</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A54">
         <v>30</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A55">
         <v>31</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A56">
         <v>35</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A57">
         <v>27</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A58">
         <v>26</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A59">
         <v>24</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A60">
         <v>25</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A61">
         <v>23</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A62">
         <v>20</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A63">
         <v>21</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A64">
         <v>13</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A66">
         <v>15</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A68">
         <v>17</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A69">
         <v>11</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A71">
         <v>12</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A72">
         <v>13</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A73">
         <v>19</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A74">
         <v>15</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A75">
         <v>13</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A76">
         <v>13</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A78">
         <v>18</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A79">
         <v>22</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A80">
         <v>21</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A81">
         <v>26</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A82">
         <v>22</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A83">
         <v>28</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A84">
         <v>23</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A85">
         <v>28</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A86">
         <v>27</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A87">
         <v>13</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A89">
         <v>13</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A91">
         <v>15</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A92">
         <v>12</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A93">
         <v>13</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A94">
         <v>13</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A96">
         <v>13</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A97">
         <v>12</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A98">
         <v>13</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A99">
         <v>18</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A100">
         <v>16</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A101">
         <v>18</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A102">
         <v>18</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A103">
         <v>23</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A104">
         <v>26</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A105">
         <v>11</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A106">
         <v>12</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A107">
         <v>13</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A108">
         <v>12</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A109">
         <v>18</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A110">
         <v>20</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A111">
         <v>21</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A112">
         <v>22</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A113">
         <v>18</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A114">
         <v>19</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A115">
         <v>21</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A116">
         <v>26</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A117">
         <v>15</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A118">
         <v>16</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A119">
         <v>29</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A120">
         <v>24</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A121">
         <v>20</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A122">
         <v>19</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A123">
         <v>15</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A124">
         <v>24</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A125">
         <v>20</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A126">
         <v>11</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A127">
         <v>20</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A128">
         <v>21</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A129">
         <v>19</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A130">
         <v>15</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A131">
         <v>31</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A132">
         <v>26</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A133">
         <v>32</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A134">
         <v>25</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A135">
         <v>16</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A136">
         <v>16</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A137">
         <v>18</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A138">
         <v>16</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A139">
         <v>13</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A142">
         <v>14</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A143">
         <v>29</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A144">
         <v>26</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A145">
         <v>26</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A146">
         <v>31</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A147">
         <v>32</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A148">
         <v>28</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A149">
         <v>24</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A150">
         <v>26</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A151">
         <v>24</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A152">
         <v>26</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A153">
         <v>31</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A154">
         <v>19</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A155">
         <v>18</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A156">
         <v>15</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A157">
         <v>15</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A159">
         <v>15</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A160">
         <v>16</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A162">
         <v>17</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A163">
         <v>16</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A164">
         <v>15</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A165">
         <v>18</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A166">
         <v>21</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A167">
         <v>20</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A168">
         <v>13</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A169">
         <v>29</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A170">
         <v>23</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A171">
         <v>20</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A172">
         <v>23</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A173">
         <v>24</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A174">
         <v>25</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A175">
         <v>24</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A176">
         <v>18</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A177">
         <v>29</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A178">
         <v>19</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A179">
         <v>23</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A180">
         <v>23</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A181">
         <v>22</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A182">
         <v>25</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A183">
         <v>33</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A184">
         <v>28</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A185">
         <v>25</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A186">
         <v>25</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A187">
         <v>26</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A188">
         <v>27</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A189">
         <v>17.5</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A190">
         <v>16</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A191">
         <v>15.5</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A192">
         <v>14.5</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A193">
         <v>22</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A194">
         <v>22</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A195">
         <v>24</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A196">
         <v>22.5</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A197">
         <v>29</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A198">
         <v>24.5</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A199">
         <v>29</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A200">
         <v>33</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A201">
         <v>20</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A202">
         <v>18</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A203">
         <v>18.5</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A204">
         <v>17.5</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A205">
         <v>29.5</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A206">
         <v>32</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A207">
         <v>28</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A208">
         <v>26.5</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A209">
         <v>20</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A210">
         <v>13</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A211">
         <v>19</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A212">
         <v>19</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A213">
         <v>16.5</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A214">
         <v>16.5</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A215">
         <v>13</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A216">
         <v>13</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A217">
         <v>13</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A218">
         <v>31.5</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A219">
         <v>30</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A220">
         <v>36</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A221">
         <v>25.5</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A222">
         <v>33.5</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A223">
         <v>17.5</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A224">
         <v>17</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A225">
         <v>15.5</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A226">
         <v>15</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A227">
         <v>17.5</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A228">
         <v>20.5</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A229">
         <v>19</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A230">
         <v>18.5</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A231">
         <v>16</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A232">
         <v>15.5</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A233">
         <v>15.5</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A234">
         <v>16</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A235">
         <v>29</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A236">
         <v>24.5</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A237">
         <v>26</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A238">
         <v>25.5</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A239">
         <v>30.5</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A240">
         <v>33.5</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A241">
         <v>30</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A242">
         <v>30.5</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A243">
         <v>22</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A244">
         <v>21.5</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A245">
         <v>21.5</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A246">
         <v>43.1</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A247">
         <v>36.1</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A248">
         <v>32.799999999999997</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A249">
         <v>39.4</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A250">
         <v>36.1</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A251">
         <v>19.899999999999999</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A252">
         <v>19.399999999999999</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A253">
         <v>20.2</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A254">
         <v>19.2</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A255">
         <v>20.5</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A256">
         <v>20.2</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A257">
         <v>25.1</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A258">
         <v>20.5</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A259">
         <v>19.399999999999999</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A260">
         <v>20.6</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A261">
         <v>20.8</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A262">
         <v>18.600000000000001</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A263">
         <v>18.100000000000001</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A264">
         <v>19.2</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A265">
         <v>17.7</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A266">
         <v>18.100000000000001</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A267">
         <v>17.5</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A268">
         <v>30</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A269">
         <v>27.5</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A270">
         <v>27.2</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A271">
         <v>30.9</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A272">
         <v>21.1</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A273">
         <v>23.2</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A274">
         <v>23.8</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A275">
         <v>23.9</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A276">
         <v>20.3</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A277">
         <v>17</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A278">
         <v>21.6</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A279">
         <v>16.2</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A280">
         <v>31.5</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A281">
         <v>29.5</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A282">
         <v>21.5</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A283">
         <v>19.8</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A284">
         <v>22.3</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A285">
         <v>20.2</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A286">
         <v>20.6</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A287">
         <v>17</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A288">
         <v>17.600000000000001</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A289">
         <v>16.5</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A290">
         <v>18.2</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A291">
         <v>16.899999999999999</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A292">
         <v>15.5</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A293">
         <v>19.2</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A294">
         <v>18.5</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A295">
         <v>31.9</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A296">
         <v>34.1</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A297">
         <v>35.700000000000003</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A298">
         <v>27.4</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A299">
         <v>25.4</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A300">
         <v>23</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A301">
         <v>27.2</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A302">
         <v>23.9</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A303">
         <v>34.200000000000003</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A304">
         <v>34.5</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A305">
         <v>31.8</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A306">
         <v>37.299999999999997</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A307">
         <v>28.4</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A308">
         <v>28.8</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A309">
         <v>26.8</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A310">
         <v>33.5</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A311">
         <v>41.5</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A312">
         <v>38.1</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A313">
         <v>32.1</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A314">
         <v>37.200000000000003</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A315">
         <v>28</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A316">
         <v>26.4</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A317">
         <v>24.3</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A318">
         <v>19.100000000000001</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A319">
         <v>34.299999999999997</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A320">
         <v>29.8</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A321">
         <v>31.3</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A322">
         <v>37</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A323">
         <v>32.200000000000003</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A324">
         <v>46.6</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A325">
         <v>27.9</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A326">
         <v>40.799999999999997</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A327">
         <v>44.3</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A328">
         <v>43.4</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A329">
         <v>36.4</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A330">
         <v>30</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A331">
         <v>44.6</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A332">
         <v>40.9</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A333">
         <v>33.799999999999997</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A334">
         <v>29.8</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A335">
         <v>32.700000000000003</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A336">
         <v>23.7</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A337">
         <v>35</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A338">
         <v>23.6</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A339">
         <v>32.4</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A340">
         <v>27.2</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A341">
         <v>26.6</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A342">
         <v>25.8</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A343">
         <v>23.5</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A344">
         <v>30</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A345">
         <v>39.1</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A346">
         <v>39</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A347">
         <v>35.1</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A348">
         <v>32.299999999999997</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A349">
         <v>37</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A350">
         <v>37.700000000000003</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A351">
         <v>34.1</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A352">
         <v>34.700000000000003</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A353">
         <v>34.4</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A354">
         <v>29.9</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A355">
         <v>33</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A356">
         <v>34.5</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A357">
         <v>33.700000000000003</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A358">
         <v>32.4</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A359">
         <v>32.9</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A360">
         <v>31.6</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A361">
         <v>28.1</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A362">
         <v>30.7</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A363">
         <v>25.4</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A364">
         <v>24.2</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A365">
         <v>22.4</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A366">
         <v>26.6</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A367">
         <v>20.2</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A368">
         <v>17.600000000000001</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A369">
         <v>28</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A370">
         <v>27</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A371">
         <v>34</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A372">
         <v>31</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A373">
         <v>29</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A374">
         <v>27</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A375">
         <v>24</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A376">
         <v>23</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A377">
         <v>36</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A378">
         <v>37</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A379">
         <v>31</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A380">
         <v>38</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A381">
         <v>36</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A382">
         <v>36</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A383">
         <v>36</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A384">
         <v>34</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A385">
         <v>38</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A386">
         <v>32</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A387">
         <v>38</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A388">
         <v>25</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A389">
         <v>38</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A390">
         <v>26</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A391">
         <v>22</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A392">
         <v>32</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A393">
         <v>36</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A394">
         <v>27</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A395">
         <v>27</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A396">
         <v>44</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A397">
         <v>32</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A398">
         <v>28</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A399">
         <v>31</v>
       </c>

--- a/4-correlation-matrix/4-correlation-matrix-solution.xlsx
+++ b/4-correlation-matrix/4-correlation-matrix-solution.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\4-correlation-matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68774F9-7A36-4ED9-A70F-C18E66A704B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AE087A-903F-45C8-86A1-221EFB026A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mpg" sheetId="1" r:id="rId1"/>
+    <sheet name="4-correlation-matrix" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -726,7 +726,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J5"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'4-correlation-matrix'!J5"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
